--- a/工作记录.xlsx
+++ b/工作记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>数据接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿快捷垫付绿通卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾+垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川国寿德阳快捷垫付卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,8 +827,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
+  <autoFilter ref="A1:E17"/>
   <tableColumns count="5">
     <tableColumn id="1" name="时间" dataDxfId="4"/>
     <tableColumn id="2" name="产品名称" dataDxfId="3"/>
@@ -1930,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2190,6 +2202,40 @@
         <v>117</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作记录.xlsx
+++ b/工作记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2月" sheetId="1" r:id="rId1"/>
@@ -363,175 +363,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陈洪霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿快捷垫付绿通VIP卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活+短信定时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾、急救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾、垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽国寿快捷垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿阿坝电话医生卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川国寿遂宁绿通VIP卡(珊瑚)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川国寿遂宁快捷垫付绿通VIP卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾+垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚运营广告落地页需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔美霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接需求，提供需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人保在线问诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据对接，接口复用事宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华人寿页面修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎泰弘扬健康管理项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵彤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈洪霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州国寿毕节绿通卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程利军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置珊瑚激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松筹项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿快捷垫付绿通卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾+垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川国寿德阳快捷垫付卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>德仁养老救援健康卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈洪霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置珊瑚激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆国寿快捷垫付绿通VIP卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置珊瑚激活+短信定时任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾、急救</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾、垫付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垫付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽国寿快捷垫付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国寿阿坝电话医生卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川国寿遂宁绿通VIP卡(珊瑚)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川国寿遂宁快捷垫付绿通VIP卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾+垫付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珊瑚运营广告落地页需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔美霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接需求，提供需求文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人保在线问诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据对接，接口复用事宜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪希慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华人寿页面修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端页面修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼎泰弘扬健康管理项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵彤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制化开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈洪霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州国寿毕节绿通卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程利军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置珊瑚激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻松筹项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆国寿快捷垫付绿通卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重疾+垫付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川国寿德阳快捷垫付卡</t>
+    <t>大势健康</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1330,7 +1330,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1994,16 +1994,16 @@
         <v>43924</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2011,16 +2011,16 @@
         <v>43931</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2028,13 +2028,13 @@
         <v>43931</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2043,16 +2043,16 @@
         <v>43935</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2060,7 +2060,7 @@
         <v>43941</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>52</v>
@@ -2077,16 +2077,16 @@
         <v>43941</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2094,7 +2094,7 @@
         <v>43942</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -2111,7 +2111,7 @@
         <v>43942</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>52</v>
@@ -2120,7 +2120,7 @@
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2128,13 +2128,13 @@
         <v>43942</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2143,13 +2143,13 @@
         <v>43942</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2158,16 +2158,16 @@
         <v>43943</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2175,13 +2175,13 @@
         <v>43943</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2190,16 +2190,16 @@
         <v>43944</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2207,7 +2207,7 @@
         <v>43945</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>52</v>
@@ -2216,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2224,7 +2224,7 @@
         <v>43947</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>52</v>
@@ -2233,7 +2233,7 @@
         <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
